--- a/Service.Catalog/wwwroot/layout/excel/medic/MedicoFormulario.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/medic/MedicoFormulario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\API\Service.Catalog\wwwroot\layout\excel\medic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC149DD8-510D-41AF-8608-741CB0E467A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05186E8-373B-433D-BD25-DA1ADA6CF858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Clave</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>CiudadId</t>
-  </si>
-  <si>
     <t>NumeroExterior</t>
   </si>
   <si>
@@ -146,12 +143,6 @@
     <t>{{Medico.CodigoPostal}}</t>
   </si>
   <si>
-    <t>{{Medico.EstadoId}}</t>
-  </si>
-  <si>
-    <t>{{Medico.CiudadId}}</t>
-  </si>
-  <si>
     <t>{{Medico.NumeroExterior}}</t>
   </si>
   <si>
@@ -177,6 +168,21 @@
   </si>
   <si>
     <t>{{Medico.EspecialidadId}}</t>
+  </si>
+  <si>
+    <t>Clinicas</t>
+  </si>
+  <si>
+    <t>{{Medico.Clinicas}}</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>{{Medico.Estado}}</t>
+  </si>
+  <si>
+    <t>{{Medico.Ciudad}}</t>
   </si>
 </sst>
 </file>
@@ -248,6 +254,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -256,9 +265,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A4281-45E9-4A26-88B5-8DB32AE336F4}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,183 +647,191 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>23</v>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E4" s="5"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E6" s="5"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" s="5"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="5"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>29</v>
+      <c r="E15" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="5"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E20" s="5"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="5"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="8">
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Service.Catalog/wwwroot/layout/excel/medic/MedicoFormulario.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/medic/MedicoFormulario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\API\Service.Catalog\wwwroot\layout\excel\medic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05186E8-373B-433D-BD25-DA1ADA6CF858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0A796D-D912-429E-BF8A-C92F54360ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Clave</t>
   </si>
@@ -168,12 +168,6 @@
   </si>
   <si>
     <t>{{Medico.EspecialidadId}}</t>
-  </si>
-  <si>
-    <t>Clinicas</t>
-  </si>
-  <si>
-    <t>{{Medico.Clinicas}}</t>
   </si>
   <si>
     <t>Ciudad</t>
@@ -638,7 +632,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,7 +679,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -700,10 +694,10 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -747,10 +741,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="1" t="s">
@@ -764,13 +758,6 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3"/>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
@@ -823,15 +810,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B15:C15"/>
+  <mergeCells count="7">
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Service.Catalog/wwwroot/layout/excel/medic/MedicoFormulario.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/medic/MedicoFormulario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\API\Service.Catalog\wwwroot\layout\excel\medic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0A796D-D912-429E-BF8A-C92F54360ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D00D52-67EE-4BD0-9853-8F4C0E131AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
@@ -173,10 +173,10 @@
     <t>Ciudad</t>
   </si>
   <si>
-    <t>{{Medico.Estado}}</t>
-  </si>
-  <si>
-    <t>{{Medico.Ciudad}}</t>
+    <t>{{Medico.EstadoId}}</t>
+  </si>
+  <si>
+    <t>{{Medico.CiudadId}}</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Service.Catalog/wwwroot/layout/excel/medic/MedicoFormulario.xlsx
+++ b/Service.Catalog/wwwroot/layout/excel/medic/MedicoFormulario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\API\Service.Catalog\wwwroot\layout\excel\medic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lapaxsis-00\source\repos\Nueva carpeta\Service.Catalog\wwwroot\layout\excel\medic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D00D52-67EE-4BD0-9853-8F4C0E131AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCC72F5-7108-4694-8F56-4BB0CA1AA2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3229E258-B22D-4941-8A9E-0DA32DA258DE}"/>
   </bookViews>
@@ -95,18 +95,9 @@
     <t>Observaciones</t>
   </si>
   <si>
-    <t>CodigoPostal</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
-    <t>NumeroExterior</t>
-  </si>
-  <si>
-    <t>NumeroInterior</t>
-  </si>
-  <si>
     <t>Calle</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t>Celular</t>
   </si>
   <si>
-    <t>Telefono</t>
-  </si>
-  <si>
     <t>Activo</t>
   </si>
   <si>
@@ -177,6 +165,18 @@
   </si>
   <si>
     <t>{{Medico.CiudadId}}</t>
+  </si>
+  <si>
+    <t>Código Postal</t>
+  </si>
+  <si>
+    <t>Número Interior</t>
+  </si>
+  <si>
+    <t>Número Exterior</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
   </si>
 </sst>
 </file>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8A4281-45E9-4A26-88B5-8DB32AE336F4}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,14 +654,14 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,14 +672,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -690,14 +690,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -708,14 +708,14 @@
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -726,14 +726,14 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -744,14 +744,14 @@
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -759,10 +759,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,10 +770,10 @@
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
@@ -781,10 +781,10 @@
     </row>
     <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="4:5" x14ac:dyDescent="0.25">
@@ -792,10 +792,10 @@
     </row>
     <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="4:5" x14ac:dyDescent="0.25">
@@ -803,10 +803,10 @@
     </row>
     <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
